--- a/18f57q84.xlsx
+++ b/18f57q84.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDriveTrabajo\Clases\GitHub_Clases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96F49A20-45BB-4044-A6AB-DD4498D074D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B862A0-D648-41F1-A8E7-2E60CCDF5C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="2610" windowWidth="21600" windowHeight="11505" xr2:uid="{06C6C622-6527-4473-B516-5A8F5E155F5F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{06C6C622-6527-4473-B516-5A8F5E155F5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>BAUDIOS</t>
   </si>
@@ -47,6 +47,15 @@
   </si>
   <si>
     <t>BRG</t>
+  </si>
+  <si>
+    <t>BAUDIOS Reales</t>
+  </si>
+  <si>
+    <t>BAUD</t>
+  </si>
+  <si>
+    <t>ERROR</t>
   </si>
 </sst>
 </file>
@@ -62,12 +71,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7C80"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,16 +115,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7C80"/>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -101,6 +146,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>544151</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>55987</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D43FA90-5E7A-A492-F064-41E982B675C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6391275" y="904875"/>
+          <a:ext cx="6678251" cy="5056612"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,13 +496,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AD64C6-56B5-484E-8E75-711E0E17C787}">
   <dimension ref="B7:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
@@ -421,45 +516,60 @@
       <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="1">
-        <v>64000000</v>
-      </c>
-      <c r="C8">
-        <v>9600</v>
-      </c>
-      <c r="D8">
+      <c r="B8" s="7">
+        <v>10000000</v>
+      </c>
+      <c r="C8" s="8">
+        <v>115200</v>
+      </c>
+      <c r="D8" s="8">
+        <v>16</v>
+      </c>
+      <c r="F8" s="5">
+        <f>((B8)/(D8*C8))-1</f>
+        <v>4.4253472222222223</v>
+      </c>
+      <c r="G8" s="2">
+        <f>TRUNC(F8,0)</f>
         <v>4</v>
-      </c>
-      <c r="F8" s="2">
-        <f>((B8)/(D8*C8))-1</f>
-        <v>1665.6666666666667</v>
-      </c>
-      <c r="G8" t="e">
-        <f>BIN2HEX(ROUNDDOWN(F8,0))</f>
-        <v>#NUM!</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
-        <f>((1/B8)*(1+(D8*3))/((16*(D13-1))))</f>
-        <v>3.1192414004914004E-11</v>
-      </c>
-      <c r="D13">
-        <v>408</v>
+        <f>(B8/(D8*G8+1))</f>
+        <v>153846.15384615384</v>
+      </c>
+      <c r="C13">
+        <f>TRUNC(B13,0)</f>
+        <v>153846</v>
+      </c>
+      <c r="E13" s="6">
+        <f>(C13-C8)/C8</f>
+        <v>0.33546874999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>